--- a/Week 4 REST API & Spring/Project_Every_People/EveryPeople_API_명세서.xlsx
+++ b/Week 4 REST API & Spring/Project_Every_People/EveryPeople_API_명세서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Rising_Camp_Plus\Week 3 DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeji/Code/Rising_Camp_Plus/Week 4 REST API &amp; Spring/Project_Every_People/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A47CA8D4-7A2E-4FC9-9CFB-FCE7A1F99F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF23CF49-080D-4E49-85A7-F1B65957E0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12210" yWindow="0" windowWidth="16695" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인수인계 사항" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="152">
   <si>
     <t>Server</t>
   </si>
@@ -205,9 +205,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>api-dev.softsquared.com</t>
-  </si>
-  <si>
     <t>RESTful API</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
   </si>
   <si>
     <t>Method</t>
-  </si>
-  <si>
-    <t>URI</t>
   </si>
   <si>
     <t>Description</t>
@@ -494,31 +488,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">post </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">관련 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>API</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -536,7 +505,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
       </rPr>
       <t>특정</t>
     </r>
@@ -554,31 +522,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
       </rPr>
       <t>유저의 친구 조회</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">채팅 관련 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>API</t>
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1123,6 +1068,61 @@
   </si>
   <si>
     <t>글에 좋아요 남기기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>every-people.com</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Post </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">관련 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>API</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">Chat 관련 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>API</t>
+    </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1231,7 +1231,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1434,29 +1433,8 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1477,6 +1455,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1699,15 +1698,15 @@
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.28515625" customWidth="1"/>
+    <col min="1" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
@@ -3239,22 +3238,22 @@
   </sheetPr>
   <dimension ref="A1:L1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="35.83203125" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
@@ -3293,12 +3292,12 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="1"/>
       <c r="F3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -3324,7 +3323,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
@@ -3341,22 +3340,22 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="10"/>
@@ -3366,14 +3365,14 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="D7" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="1"/>
@@ -3386,13 +3385,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>132</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3408,13 +3407,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>129</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>133</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -3430,10 +3429,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>131</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3447,13 +3446,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -3469,10 +3468,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>137</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -3541,14 +3540,14 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="D18" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3561,13 +3560,11 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>135</v>
+        <v>68</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="25" t="s">
+        <v>131</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -3583,11 +3580,11 @@
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="39" t="s">
-        <v>137</v>
+      <c r="G20" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -3599,15 +3596,15 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="36">
+      <c r="D21" s="24">
         <v>3</v>
       </c>
-      <c r="E21" s="35" t="s">
-        <v>128</v>
+      <c r="E21" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="F21" s="17"/>
-      <c r="G21" s="40" t="s">
-        <v>139</v>
+      <c r="G21" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -3622,12 +3619,12 @@
       <c r="D22" s="16">
         <v>4</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>128</v>
+      <c r="E22" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="F22" s="17"/>
-      <c r="G22" s="41" t="s">
-        <v>138</v>
+      <c r="G22" s="28" t="s">
+        <v>134</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -3643,10 +3640,10 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>146</v>
+        <v>65</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>142</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="18"/>
@@ -3662,10 +3659,10 @@
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>147</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="18"/>
@@ -3681,10 +3678,10 @@
         <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="41" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>144</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="18"/>
@@ -3696,15 +3693,15 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="36">
+      <c r="D26" s="24">
         <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="43" t="s">
-        <v>142</v>
+      <c r="G26" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="18"/>
@@ -3720,11 +3717,11 @@
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="39" t="s">
-        <v>143</v>
+      <c r="G27" s="26" t="s">
+        <v>139</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="18"/>
@@ -3740,11 +3737,11 @@
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="26" t="s">
         <v>140</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="39" t="s">
-        <v>144</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="18"/>
@@ -3760,11 +3757,11 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="39" t="s">
-        <v>145</v>
+      <c r="G29" s="26" t="s">
+        <v>141</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -3790,14 +3787,14 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
+      <c r="D31" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3810,13 +3807,11 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="26" t="s">
         <v>130</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>134</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -3832,13 +3827,11 @@
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>149</v>
+        <v>136</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="26" t="s">
+        <v>145</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3861,7 +3854,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="42"/>
+      <c r="G35" s="29"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="1"/>
@@ -3875,7 +3868,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="42"/>
+      <c r="G36" s="29"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="1"/>
@@ -3889,7 +3882,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="42"/>
+      <c r="G37" s="29"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="1"/>
@@ -9763,24 +9756,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -9803,10 +9796,10 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -9829,7 +9822,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -9843,22 +9836,22 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
         <v>74</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>75</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>76</v>
       </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" t="s">
-        <v>78</v>
-      </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -9875,7 +9868,7 @@
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -9889,22 +9882,22 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
         <v>74</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>75</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>76</v>
       </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -9912,20 +9905,20 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -9955,25 +9948,25 @@
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
         <v>74</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>75</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="6"/>
@@ -10016,7 +10009,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -10030,22 +10023,22 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>75</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>76</v>
       </c>
-      <c r="F17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" t="s">
-        <v>78</v>
-      </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -10053,13 +10046,13 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -10067,19 +10060,19 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -10087,16 +10080,16 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s">
         <v>82</v>
-      </c>
-      <c r="H20" t="s">
-        <v>84</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -10104,20 +10097,20 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -10125,20 +10118,20 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F22" s="20">
         <v>100</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -10146,20 +10139,20 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -10210,7 +10203,7 @@
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -10223,12 +10216,12 @@
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
+      <c r="C29" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="9"/>
@@ -10236,10 +10229,10 @@
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -10247,10 +10240,10 @@
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -10258,10 +10251,10 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -10269,10 +10262,10 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -10280,10 +10273,10 @@
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -10291,10 +10284,10 @@
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -10302,10 +10295,10 @@
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -10313,10 +10306,10 @@
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -10324,10 +10317,10 @@
     <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -10335,10 +10328,10 @@
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -10346,10 +10339,10 @@
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -10357,10 +10350,10 @@
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -10368,7 +10361,7 @@
     <row r="42" spans="1:9" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -10382,10 +10375,10 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -10400,7 +10393,7 @@
         <v>100</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -10415,7 +10408,7 @@
         <v>101</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -11468,21 +11461,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -11506,10 +11499,10 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -11532,7 +11525,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -11546,22 +11539,22 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
         <v>74</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>75</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>76</v>
       </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" t="s">
-        <v>78</v>
-      </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -11573,7 +11566,7 @@
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -11587,22 +11580,22 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
         <v>74</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>75</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>76</v>
       </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -11636,7 +11629,7 @@
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -11656,22 +11649,22 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
         <v>74</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>75</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>76</v>
       </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -11679,13 +11672,13 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -11695,7 +11688,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -11709,22 +11702,22 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
         <v>74</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>75</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>76</v>
       </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -11732,13 +11725,13 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -11746,16 +11739,16 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -11763,16 +11756,16 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -11780,16 +11773,16 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -11797,13 +11790,13 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -11816,60 +11809,60 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F24" s="20">
         <v>100</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -11884,7 +11877,7 @@
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -11897,12 +11890,12 @@
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
+      <c r="C29" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -11910,10 +11903,10 @@
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -11921,10 +11914,10 @@
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -11932,10 +11925,10 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -11943,10 +11936,10 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -11954,37 +11947,37 @@
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -11997,10 +11990,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -12014,7 +12007,7 @@
         <v>100</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -12028,7 +12021,7 @@
         <v>200</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -12042,7 +12035,7 @@
         <v>207</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -13090,21 +13083,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -13128,10 +13121,10 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -13154,7 +13147,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -13168,22 +13161,22 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
         <v>74</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>75</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>76</v>
       </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" t="s">
-        <v>78</v>
-      </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -13195,7 +13188,7 @@
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -13209,22 +13202,22 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
         <v>74</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>75</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>76</v>
       </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -13269,7 +13262,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -13283,22 +13276,22 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
         <v>74</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>75</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>76</v>
       </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -13316,7 +13309,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -13330,22 +13323,22 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>75</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>76</v>
       </c>
-      <c r="F17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" t="s">
-        <v>78</v>
-      </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -13353,13 +13346,13 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -13367,16 +13360,16 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -13384,16 +13377,16 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -13401,16 +13394,16 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -13418,13 +13411,13 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -13437,60 +13430,60 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F24" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25" s="20">
         <v>100</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I26" s="1"/>
     </row>
@@ -13505,7 +13498,7 @@
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -13518,12 +13511,12 @@
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
+      <c r="C30" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -13531,10 +13524,10 @@
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -13542,10 +13535,10 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -13553,10 +13546,10 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -13564,47 +13557,47 @@
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -13617,10 +13610,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -13634,7 +13627,7 @@
         <v>100</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -13648,7 +13641,7 @@
         <v>200</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -13663,7 +13656,7 @@
         <v>207</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>

--- a/Week 4 REST API & Spring/Project_Every_People/EveryPeople_API_명세서.xlsx
+++ b/Week 4 REST API & Spring/Project_Every_People/EveryPeople_API_명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimtaeji/Code/Rising_Camp_Plus/Week 4 REST API &amp; Spring/Project_Every_People/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF23CF49-080D-4E49-85A7-F1B65957E0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C576249-4535-DF44-B9B4-9C890CDB94F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-3600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인수인계 사항" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="165">
   <si>
     <t>Server</t>
   </si>
@@ -524,66 +524,6 @@
         <rFont val="Arial Unicode MS"/>
       </rPr>
       <t>유저의 친구 조회</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>특정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> API</t>
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -731,66 +671,6 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> API</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
         <charset val="129"/>
@@ -1123,6 +1003,160 @@
       </rPr>
       <t>API</t>
     </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 정보 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저 정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/friends</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/posts</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{boardId}/posts</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{userId}/posts</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{userId}/comments</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{userId}/{postId}/likes</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{boardId}/{postId}/comments</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{userId}/{postId}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{userId}/{postId}/{comments}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{userId}/message</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/{userId}/message_room</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1421,7 +1455,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1476,6 +1509,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3239,7 +3273,7 @@
   <dimension ref="A1:L1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3292,7 +3326,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="1"/>
@@ -3346,7 +3380,7 @@
         <v>61</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>62</v>
@@ -3365,14 +3399,14 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="1"/>
@@ -3390,11 +3424,13 @@
       <c r="F8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="25" t="s">
-        <v>132</v>
+      <c r="G8" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -3412,11 +3448,13 @@
       <c r="F9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>129</v>
+      <c r="G9" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -3431,7 +3469,10 @@
       <c r="E10" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>128</v>
       </c>
       <c r="J10" s="1"/>
@@ -3448,7 +3489,7 @@
       <c r="E11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="43" t="s">
         <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -3468,10 +3509,13 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>135</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -3540,14 +3584,14 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="D18" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3562,9 +3606,11 @@
       <c r="E19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="25" t="s">
-        <v>131</v>
+      <c r="F19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -3582,9 +3628,11 @@
       <c r="E20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="26" t="s">
-        <v>133</v>
+      <c r="F20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>131</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -3596,15 +3644,17 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="24">
+      <c r="D21" s="23">
         <v>3</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="27" t="s">
-        <v>135</v>
+      <c r="F21" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -3619,12 +3669,14 @@
       <c r="D22" s="16">
         <v>4</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="28" t="s">
-        <v>134</v>
+      <c r="F22" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -3642,14 +3694,17 @@
       <c r="E23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="28" t="s">
-        <v>142</v>
+      <c r="F23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>140</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="19"/>
+      <c r="L23" s="18"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
@@ -3659,16 +3714,19 @@
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="19"/>
+      <c r="L24" s="18"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
@@ -3678,36 +3736,39 @@
         <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="19"/>
+      <c r="L25" s="18"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="24">
+      <c r="D26" s="7">
         <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="J26" s="18"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="19"/>
+      <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
@@ -3717,17 +3778,19 @@
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="26" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="19"/>
+      <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
@@ -3737,31 +3800,35 @@
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="26" t="s">
-        <v>140</v>
+        <v>159</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="19"/>
+      <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="7">
+      <c r="D29" s="23">
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="29" t="s">
         <v>136</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="26" t="s">
-        <v>141</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -3773,12 +3840,8 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3787,14 +3850,14 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="D31" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3809,9 +3872,11 @@
       <c r="E32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="26" t="s">
-        <v>130</v>
+      <c r="F32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -3827,11 +3892,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="26" t="s">
-        <v>145</v>
+        <v>159</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3854,7 +3921,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="29"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="1"/>
@@ -3868,7 +3935,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="29"/>
+      <c r="G36" s="28"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="1"/>
@@ -3882,7 +3949,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="29"/>
+      <c r="G37" s="28"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="1"/>
@@ -9739,9 +9806,6 @@
     <mergeCell ref="D31:I31"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F11" location="1!A1" display="/app/users" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -9754,7 +9818,9 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -9979,7 +10045,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -10126,7 +10192,7 @@
       <c r="E22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="19">
         <v>100</v>
       </c>
       <c r="G22" s="1"/>
@@ -10147,7 +10213,7 @@
       <c r="E23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>97</v>
       </c>
       <c r="G23" s="1"/>
@@ -10216,12 +10282,12 @@
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="9"/>
@@ -10229,10 +10295,10 @@
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -10240,10 +10306,10 @@
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -10251,10 +10317,10 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -10262,10 +10328,10 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -10273,10 +10339,10 @@
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -10284,10 +10350,10 @@
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -10295,10 +10361,10 @@
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -10306,10 +10372,10 @@
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="38"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -10317,10 +10383,10 @@
     <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -10328,10 +10394,10 @@
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="38"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -10339,10 +10405,10 @@
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="38"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -10350,10 +10416,10 @@
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="41"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -10389,7 +10455,7 @@
     <row r="44" spans="1:9" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="20">
+      <c r="C44" s="19">
         <v>100</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -10404,10 +10470,10 @@
     <row r="45" spans="1:9" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="20">
+      <c r="C45" s="19">
         <v>101</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="20" t="s">
         <v>103</v>
       </c>
       <c r="E45" s="1"/>
@@ -10419,7 +10485,7 @@
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="20"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -11459,7 +11525,7 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="143" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -11747,7 +11813,7 @@
       <c r="E18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>111</v>
       </c>
       <c r="I18" s="1"/>
@@ -11837,7 +11903,7 @@
       <c r="E24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="19">
         <v>100</v>
       </c>
       <c r="G24" s="1"/>
@@ -11890,12 +11956,12 @@
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -11903,10 +11969,10 @@
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -11914,10 +11980,10 @@
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -11925,10 +11991,10 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -11936,10 +12002,10 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -11947,30 +12013,30 @@
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -12003,7 +12069,7 @@
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="20">
+      <c r="C39" s="19">
         <v>100</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -12017,7 +12083,7 @@
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="20">
+      <c r="C40" s="19">
         <v>200</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -12031,7 +12097,7 @@
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="20">
+      <c r="C41" s="19">
         <v>207</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -13081,7 +13147,7 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -13368,7 +13434,7 @@
       <c r="E19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>111</v>
       </c>
       <c r="I19" s="1"/>
@@ -13458,7 +13524,7 @@
       <c r="E25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="19">
         <v>100</v>
       </c>
       <c r="G25" s="1"/>
@@ -13511,12 +13577,12 @@
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -13524,10 +13590,10 @@
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -13535,10 +13601,10 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -13546,10 +13612,10 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -13557,40 +13623,40 @@
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -13623,7 +13689,7 @@
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="20">
+      <c r="C40" s="19">
         <v>100</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -13637,7 +13703,7 @@
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="20">
+      <c r="C41" s="19">
         <v>200</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -13652,7 +13718,7 @@
     <row r="42" spans="1:9" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="20">
+      <c r="C42" s="19">
         <v>207</v>
       </c>
       <c r="D42" s="1" t="s">
